--- a/datamares/OLR/OLR_datamares_mangroves.xlsx
+++ b/datamares/OLR/OLR_datamares_mangroves.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\datamares\Working_Metadata\Batch_2_mangroves_2016-10-14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\datamares\OLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="21600" windowHeight="10545"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="21600" windowHeight="10545" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="700">
   <si>
     <t>text</t>
   </si>
@@ -1907,15 +1907,9 @@
     <t>Giron-Nava, Alfredo</t>
   </si>
   <si>
-    <t>Gulf of California</t>
-  </si>
-  <si>
     <t>Mangroves - Snappers travel to the reefs</t>
   </si>
   <si>
-    <t>Yellow snapper | Mangroves | Recruitment | Nursery</t>
-  </si>
-  <si>
     <t>mg_gc_snappers_distances.xlsx</t>
   </si>
   <si>
@@ -1925,15 +1919,9 @@
     <t>This dataset contains the depths of peat deposits obtained by coring in eight mangrove forests near La Paz, BCS, Mexico in June and August 2014.</t>
   </si>
   <si>
-    <t>Mangroves | Peat</t>
-  </si>
-  <si>
     <t>Costa, Matthew T.</t>
   </si>
   <si>
-    <t>Gulf of California | Bahia de La Paz</t>
-  </si>
-  <si>
     <t>mg_gc_peat.xlsx</t>
   </si>
   <si>
@@ -1952,9 +1940,6 @@
     <t>Monitoring data in mangroves of the Gulf of California.</t>
   </si>
   <si>
-    <t>Snapper | Mangroves</t>
-  </si>
-  <si>
     <t>2006 to 2009</t>
   </si>
   <si>
@@ -1982,9 +1967,6 @@
     <t>Los manglares almacenan toneladas de carbono @ http://dx.doi.org/10.13022/M3PC71</t>
   </si>
   <si>
-    <t>Mangroves | Carbon sequestration | Blue carbon</t>
-  </si>
-  <si>
     <t xml:space="preserve">In the summer of 2014, my colleagues and I sampled mangrove sediments in eight forests near the city of La Paz, BCS, in the southern Gulf of California.  We sampled in a range of forests that varied in total area, and, in each forest, we sampled in both fringe and hinterland locations. Though our coring device could reach down to 3 m, the actual depth sampled varies from site to site, because hard material (such as limestone or sand) resisted the corer and thus marked the bottom of each of our core samples.  In this study, we assessed C storage in the mangrove forests of the southern Gulf of California. We sampled in eight forests near the city of La Paz, which range in total area from 2 to 96 hectares, and, in each forest, we sampled both in the forest interior (or “hinterland”) and the fringe at the water’s edge.  We used a sediment core to obtain samples, and though our coring device could reach down to 3 m, the actual depth sampled varies from site to site, because hard material (such as limestone or sand) resisted the corer and thus marked the bottom of each of our core samples.  In the field, a labelled jar was used to contain each sample, which we later dried, ground, and weighed before precisely measuring the amount of C in each, ultimately estimating the amount of C stored in the entire forest.  rn Gulf of California.  We sampled eight mangrove forests ranging in size from 2 to 96 hectares, both in the forest interior (or “hinterland”) and the fringe at the water’s edge.  We used a sediment core to obtain samples, which we dried, ground, and weighed before precisely measuring the amount of C in each sample, ultimately estimating the amount of C stored in the entire forest.  </t>
   </si>
   <si>
@@ -2006,12 +1988,6 @@
     <t>A first look at blue carbon storage in Mexican desert mangroves @ http://dx.doi.org/10.13022/M3H01D</t>
   </si>
   <si>
-    <t>Bahia Magdalena | Playa Balandra</t>
-  </si>
-  <si>
-    <t>Blue carbon | Carbon sequestration | Mangroves | Peat</t>
-  </si>
-  <si>
     <t>The data described here have been embargoed until Fall 2016. Inquiries should be directed to Paula Ezcurra (pezcurra@ucsd.edu).</t>
   </si>
   <si>
@@ -2037,12 +2013,6 @@
   </si>
   <si>
     <t>Software used: Microsoft Excel.  Coordinate system: WGS1984.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aburto-Oropeza, Octavio </t>
-  </si>
-  <si>
-    <t>Bahia de La Paz| Baja California Sur | Mexico</t>
   </si>
   <si>
     <t>mg_gc_cores.xlsx</t>
@@ -2092,9 +2062,6 @@
     <t>Inquiries should be directed to Octavio Aburto-Oropeza (maburto@ucsd.edu)</t>
   </si>
   <si>
-    <t>Gulf of California | Mexico</t>
-  </si>
-  <si>
     <t>Como la distancia entre los manglares y los arrecifes podria afectar a las poblaciones de pargo @ http://dx.doi.org/10.13022/M3T88M</t>
   </si>
   <si>
@@ -2126,6 +2093,39 @@
   </si>
   <si>
     <t>Ezcurra P, Ezcurra E, Garcillan PP, Costa MT, Aburto-Oropeza O (2016) Coastal landforms and accumulation of mangrove peat increase carbon sequestration and storage. PNAS 113:4404-4409 @ http://www.pnas.org/content/113/16/4404.abstract</t>
+  </si>
+  <si>
+    <t>Aburto-Oropeza, Octavio</t>
+  </si>
+  <si>
+    <t>La Paz Bay (Mexico) | Baja California Sur (Mexico) | Mexico</t>
+  </si>
+  <si>
+    <t>California, Gulf of (Mexico) | La Paz Bay (Mexico)</t>
+  </si>
+  <si>
+    <t>California, Gulf of (Mexico)</t>
+  </si>
+  <si>
+    <t>California, Gulf of (Mexico) | Mexico</t>
+  </si>
+  <si>
+    <t>Magdalena Bay (Mexico) | Playa Balandra (Mexico)</t>
+  </si>
+  <si>
+    <t>Blue carbon | Carbon sequestration | Mangrove | Peat</t>
+  </si>
+  <si>
+    <t>Mangrove | Carbon sequestration | Blue carbon</t>
+  </si>
+  <si>
+    <t>Mangrove | Peat</t>
+  </si>
+  <si>
+    <t>Snapper | Mangrove</t>
+  </si>
+  <si>
+    <t>Yellow snapper | Lutjanus argentiventris | Mangrove | Recruitment | Nursery habitat</t>
   </si>
 </sst>
 </file>
@@ -3464,12 +3464,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,13 +3491,13 @@
     <col min="18" max="18" width="37.5703125" style="24" customWidth="1"/>
     <col min="19" max="19" width="37" style="27" customWidth="1"/>
     <col min="20" max="23" width="39.140625" style="24" customWidth="1"/>
-    <col min="24" max="25" width="42.85546875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="60.140625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="60.7109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="41.5703125" customWidth="1"/>
+    <col min="24" max="26" width="42.85546875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="60.140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="60.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -3571,19 +3571,22 @@
         <v>460</v>
       </c>
       <c r="Y1" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z1" s="16" t="s">
         <v>455</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>483</v>
       </c>
       <c r="AA1" s="16" t="s">
         <v>483</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>621</v>
       </c>
@@ -3591,10 +3594,10 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>403</v>
@@ -3609,10 +3612,10 @@
         <v>433</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>626</v>
@@ -3628,42 +3631,43 @@
         <v>625</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="S2" s="27"/>
       <c r="T2" s="22" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="U2" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="V2" s="22" t="s">
         <v>662</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>670</v>
       </c>
       <c r="W2" s="22"/>
       <c r="X2" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>659</v>
+        <v>695</v>
+      </c>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17" t="s">
+        <v>694</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>622</v>
       </c>
@@ -3671,10 +3675,10 @@
         <v>485</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>403</v>
@@ -3689,59 +3693,59 @@
         <v>433</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>626</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>623</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>650</v>
+        <v>696</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>690</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB3" s="3"/>
-    </row>
-    <row r="4" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>624</v>
       </c>
@@ -3749,10 +3753,10 @@
         <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>403</v>
@@ -3767,13 +3771,13 @@
         <v>433</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17" t="s">
@@ -3781,53 +3785,54 @@
       </c>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="27" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA4" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="Y4" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="19" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>403</v>
@@ -3842,10 +3847,10 @@
         <v>433</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>626</v>
@@ -3858,55 +3863,56 @@
         <v>625</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="S5" s="27"/>
       <c r="T5" s="22" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>627</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="Y5" s="17"/>
       <c r="Z5" s="17" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>403</v>
@@ -3921,10 +3927,10 @@
         <v>433</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>626</v>
@@ -3937,77 +3943,78 @@
         <v>625</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="S6" s="27"/>
       <c r="T6" s="22" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="W6" s="22"/>
       <c r="X6" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="AA6" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="Y6" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="AA6" s="19" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB6" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="V7" s="22"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="V8" s="22"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K9" s="17"/>
       <c r="V9" s="22"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="V10" s="22"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="V11" s="22"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O12" s="20"/>
       <c r="V12" s="22"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K13" s="17"/>
       <c r="V13" s="22"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="K14" s="17"/>
       <c r="V14" s="22"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J15" s="17"/>
       <c r="V15" s="22"/>
     </row>
@@ -4197,13 +4204,13 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>X1:Y1</xm:sqref>
+          <xm:sqref>X1:Z1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>Z1:AA1</xm:sqref>
+          <xm:sqref>AA1:AB1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
@@ -4233,7 +4240,7 @@
           <x14:formula1>
             <xm:f>'[1]Select-a-header values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AB1</xm:sqref>
+          <xm:sqref>AC1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/datamares/OLR/OLR_datamares_mangroves.xlsx
+++ b/datamares/OLR/OLR_datamares_mangroves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="696">
   <si>
     <t>text</t>
   </si>
@@ -2018,9 +2018,6 @@
     <t>mg_gc_cores.xlsx</t>
   </si>
   <si>
-    <t>EMBARGO DATE</t>
-  </si>
-  <si>
     <t>Preliminary analysis of Mexican desert mangrove carbon context, and species source of belowground peat tissue.</t>
   </si>
   <si>
@@ -2031,9 +2028,6 @@
   </si>
   <si>
     <t>Mangrove carbon storage in the Gulf of California</t>
-  </si>
-  <si>
-    <t>2018-01-01</t>
   </si>
   <si>
     <t>Mangrove forests are packed with carbon, typically with more than 100 kilogram of carbon in just one square meter, more than in any other type of tropical forest (Donato et al., 2011, Nature Geoscience).  Even though the mangrove trees that we see do not compare in height and girth with those in upland tropical rainforests, they manage more than their share of carbon storage underground, in their vast root systems.  The organic matter sequestered in the roots of these trees does not decompose quickly, and so thick layers of organic-rich peat are deposited over time, sometimes reaching several meters deep, spanning hundreds of years, and containing tons of carbon.
@@ -2041,9 +2035,6 @@
 Mangrove forests are highly valuable ecosystems, providing timber, supporting fisheries, and protecting coastlines from erosion.  Our findings may add to the appreciation of the value of mangroves in this region, particularly if large amounts of carbon are found to be sequestered beneath these forests.  As the problem of CO2 pollution grows in severity and global impact, it is of utmost importance that scientists discover, study, and protect the natural processes and places that keep carbon stored and out of the atmosphere.</t>
   </si>
   <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
     <t>2014-06 to 2014-08</t>
   </si>
   <si>
@@ -2063,9 +2054,6 @@
   </si>
   <si>
     <t>Como la distancia entre los manglares y los arrecifes podria afectar a las poblaciones de pargo @ http://dx.doi.org/10.13022/M3T88M</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>1998-2009</t>
@@ -3464,40 +3452,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.5703125" style="24" customWidth="1"/>
-    <col min="19" max="19" width="37" style="27" customWidth="1"/>
-    <col min="20" max="23" width="39.140625" style="24" customWidth="1"/>
-    <col min="24" max="26" width="42.85546875" style="3" customWidth="1"/>
-    <col min="27" max="27" width="60.140625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="60.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.5703125" style="24" customWidth="1"/>
+    <col min="18" max="18" width="37" style="27" customWidth="1"/>
+    <col min="19" max="22" width="39.140625" style="24" customWidth="1"/>
+    <col min="23" max="25" width="42.85546875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="60.140625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="60.7109375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3505,88 +3492,85 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>664</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="J1" s="16" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>105</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>352</v>
       </c>
+      <c r="S1" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="T1" s="21" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="W1" s="21" t="s">
         <v>506</v>
       </c>
+      <c r="W1" s="16" t="s">
+        <v>460</v>
+      </c>
       <c r="X1" s="16" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="AA1" s="16" t="s">
         <v>483</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>621</v>
       </c>
@@ -3594,80 +3578,77 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>659</v>
+        <v>403</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>433</v>
+        <v>658</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="K2" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
+        <v>623</v>
+      </c>
       <c r="M2" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>625</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q2" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="R2" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="U2" s="23" t="s">
+      <c r="Q2" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="R2" s="27"/>
+      <c r="S2" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="T2" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="U2" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17" t="s">
-        <v>694</v>
+      <c r="V2" s="22"/>
+      <c r="W2" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>653</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB2" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="AC2" s="28" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB2" s="28" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>622</v>
       </c>
@@ -3675,77 +3656,74 @@
         <v>485</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>663</v>
       </c>
+      <c r="D3" s="17" t="s">
+        <v>403</v>
+      </c>
       <c r="E3" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="H3" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="T3" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="V3" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z3" s="17" t="s">
-        <v>690</v>
+      <c r="W3" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>645</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB3" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="AC3" s="3"/>
-    </row>
-    <row r="4" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>624</v>
       </c>
@@ -3753,270 +3731,261 @@
         <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>671</v>
+        <v>632</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>632</v>
+        <v>403</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>433</v>
+        <v>635</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17" t="s">
+        <v>669</v>
+      </c>
       <c r="O4" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="T4" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="P4" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>674</v>
-      </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="T4" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="V4" s="22" t="s">
+      <c r="U4" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="W4" s="22"/>
-      <c r="X4" s="17" t="s">
-        <v>697</v>
-      </c>
-      <c r="Y4" s="17"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17" t="s">
+        <v>687</v>
+      </c>
       <c r="Z4" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="AA4" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>679</v>
+        <v>641</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>641</v>
+        <v>403</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>433</v>
+        <v>636</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>636</v>
+        <v>685</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="K5" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17" t="s">
+        <v>623</v>
+      </c>
       <c r="M5" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q5" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="R5" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="S5" s="27"/>
+      <c r="Q5" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="R5" s="27"/>
+      <c r="S5" s="22" t="s">
+        <v>637</v>
+      </c>
       <c r="T5" s="22" t="s">
-        <v>637</v>
+        <v>674</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="W5" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="X5" s="17" t="s">
-        <v>698</v>
-      </c>
-      <c r="Y5" s="17"/>
+      <c r="W5" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17" t="s">
+        <v>688</v>
+      </c>
       <c r="Z5" s="17" t="s">
-        <v>692</v>
+        <v>643</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB5" s="17" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>679</v>
+        <v>628</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>628</v>
+        <v>403</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>433</v>
+        <v>627</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>627</v>
+        <v>685</v>
       </c>
       <c r="J6" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>640</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>677</v>
-      </c>
-      <c r="V6" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="W6" s="22"/>
-      <c r="X6" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17" t="s">
-        <v>693</v>
+      <c r="Z6" s="19" t="s">
+        <v>629</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="V7" s="22"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="V8" s="22"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K9" s="17"/>
-      <c r="V9" s="22"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J9" s="17"/>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="V10" s="22"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K11" s="17"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="V11" s="22"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O12" s="20"/>
-      <c r="V12" s="22"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K13" s="17"/>
-      <c r="V13" s="22"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="K14" s="17"/>
-      <c r="V14" s="22"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J15" s="17"/>
-      <c r="V15" s="22"/>
+      <c r="U11" s="22"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N12" s="20"/>
+      <c r="U12" s="22"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J13" s="17"/>
+      <c r="U13" s="22"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J14" s="17"/>
+      <c r="U14" s="22"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I15" s="17"/>
+      <c r="U15" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:B1048576 B1 B4:B8">
@@ -4157,7 +4126,7 @@
   </conditionalFormatting>
   <dataValidations xWindow="1495" yWindow="249" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="G1:H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="F1:G1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4168,25 +4137,25 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I1</xm:sqref>
+          <xm:sqref>H1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:O1</xm:sqref>
+          <xm:sqref>M1:N1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E1048576</xm:sqref>
+          <xm:sqref>D4:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F1048576</xm:sqref>
+          <xm:sqref>E4:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
@@ -4198,49 +4167,49 @@
           <x14:formula1>
             <xm:f>'CV values'!$D$2:$D$60</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:H1048576</xm:sqref>
+          <xm:sqref>F4:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>X1:Z1</xm:sqref>
+          <xm:sqref>W1:Y1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>AA1:AB1</xm:sqref>
+          <xm:sqref>Z1:AA1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:H3</xm:sqref>
+          <xm:sqref>F2:G3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3 E2:F3</xm:sqref>
+          <xm:sqref>B2:B3 D2:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$30</xm:f>
           </x14:formula1>
-          <xm:sqref>R1:W1</xm:sqref>
+          <xm:sqref>Q1:V1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$B$1:$B$233</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:K1</xm:sqref>
+          <xm:sqref>I1:J1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'[1]Select-a-header values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AC1</xm:sqref>
+          <xm:sqref>AB1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/datamares/OLR/OLR_datamares_mangroves.xlsx
+++ b/datamares/OLR/OLR_datamares_mangroves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="694">
   <si>
     <t>text</t>
   </si>
@@ -1922,9 +1922,6 @@
     <t>Costa, Matthew T.</t>
   </si>
   <si>
-    <t>mg_gc_peat.xlsx</t>
-  </si>
-  <si>
     <t>Sampling Mangrove Peat in the Southern Gulf of California @ http://dx.doi.org/10.13022/M3Z596</t>
   </si>
   <si>
@@ -2013,9 +2010,6 @@
   </si>
   <si>
     <t>Software used: Microsoft Excel.  Coordinate system: WGS1984.</t>
-  </si>
-  <si>
-    <t>mg_gc_cores.xlsx</t>
   </si>
   <si>
     <t>Preliminary analysis of Mexican desert mangrove carbon context, and species source of belowground peat tissue.</t>
@@ -3457,7 +3451,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,7 +3561,7 @@
         <v>483</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3578,7 +3572,7 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>403</v>
@@ -3593,10 +3587,10 @@
         <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>626</v>
@@ -3612,40 +3606,40 @@
         <v>625</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="22" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Z2" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AB2" s="28" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3655,15 +3649,8 @@
       <c r="B3" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
         <v>358</v>
       </c>
@@ -3671,7 +3658,7 @@
         <v>433</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>631</v>
@@ -3680,46 +3667,46 @@
         <v>626</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>623</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="T3" s="25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V3" s="24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="AB3" s="3"/>
     </row>
@@ -3730,15 +3717,9 @@
       <c r="B4" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="17" t="s">
         <v>358</v>
       </c>
@@ -3746,7 +3727,7 @@
         <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>631</v>
@@ -3760,51 +3741,51 @@
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="P4" s="17" t="s">
         <v>669</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>671</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="27" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="S4" s="22" t="s">
         <v>630</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="Z4" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA4" s="19" t="s">
         <v>633</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>403</v>
@@ -3819,10 +3800,10 @@
         <v>433</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>626</v>
@@ -3835,47 +3816,47 @@
         <v>625</v>
       </c>
       <c r="N5" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O5" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="P5" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="P5" s="17" t="s">
-        <v>640</v>
-      </c>
       <c r="Q5" s="22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="R5" s="27"/>
       <c r="S5" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Z5" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA5" s="17" t="s">
         <v>643</v>
-      </c>
-      <c r="AA5" s="17" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>485</v>
@@ -3899,7 +3880,7 @@
         <v>627</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>626</v>
@@ -3912,40 +3893,40 @@
         <v>625</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="R6" s="27"/>
       <c r="S6" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="U6" s="22" t="s">
         <v>660</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>661</v>
       </c>
       <c r="V6" s="22"/>
       <c r="W6" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Z6" s="19" t="s">
         <v>629</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">

--- a/datamares/OLR/OLR_datamares_mangroves.xlsx
+++ b/datamares/OLR/OLR_datamares_mangroves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="21600" windowHeight="10545" tabRatio="522"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="21600" windowHeight="10545" tabRatio="482"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="696">
   <si>
     <t>text</t>
   </si>
@@ -1983,9 +1983,6 @@
   </si>
   <si>
     <t>A first look at blue carbon storage in Mexican desert mangroves @ http://dx.doi.org/10.13022/M3H01D</t>
-  </si>
-  <si>
-    <t>The data described here have been embargoed until Fall 2016. Inquiries should be directed to Paula Ezcurra (pezcurra@ucsd.edu).</t>
   </si>
   <si>
     <t>2016-12-31</t>
@@ -2062,15 +2059,6 @@
     <t>Costa, Matthew T; Ezcurra, Paula; Aburto-Oropeza, Octavio (20##): Mangrove peat. In dataMares Project: Mangroves. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
-    <t>Aburto-Oropeza, Octavio (2016): Mangroves monitoring - Snappers. In dataMares Project: Mangroves. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
-    <t>Aburto-Oropeza, Octavio (2016): Mangroves - Snappers travel to the reefs. In dataMares Project: Mangroves. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
-    <t>Ezcurra, Paula; Aburto-Oropeza, Octavio; Ezcurra, Exequiel (2016): A first look at blue carbon storage in Mexican desert mangroves. In dataMares Project: Mangroves. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
     <t>Note:related publications</t>
   </si>
   <si>
@@ -2107,7 +2095,25 @@
     <t>Snapper | Mangrove</t>
   </si>
   <si>
-    <t>Yellow snapper | Lutjanus argentiventris | Mangrove | Recruitment | Nursery habitat</t>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Ezcurra, Paula; Aburto-Oropeza, Octavio; Ezcurra, Exequiel (2017): A first look at blue carbon storage in Mexican desert mangroves. In dataMares Project: Mangroves. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Aburto-Oropeza, Octavio (2017): Mangroves monitoring - Snappers. In dataMares Project: Mangroves. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Aburto-Oropeza, Octavio (2017): Mangroves - Snappers travel to the reefs. In dataMares Project: Mangroves. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Inquiries should be directed to Paula Ezcurra (pezcurra@ucsd.edu).</t>
+  </si>
+  <si>
+    <t>Yellow snapper | Mangrove | Recruitment | Nursery habitat</t>
+  </si>
+  <si>
+    <t>Lutjanus argentiventris</t>
   </si>
 </sst>
 </file>
@@ -3448,10 +3454,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,7 +3567,7 @@
         <v>483</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3572,7 +3578,7 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>403</v>
@@ -3587,10 +3593,10 @@
         <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>626</v>
@@ -3600,37 +3606,37 @@
         <v>623</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>625</v>
+        <v>689</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>625</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="R2" s="27"/>
       <c r="S2" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="U2" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V2" s="22"/>
       <c r="W2" s="17" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="X2" s="17"/>
       <c r="Y2" s="17" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="Z2" s="19" t="s">
         <v>652</v>
@@ -3639,7 +3645,7 @@
         <v>651</v>
       </c>
       <c r="AB2" s="28" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3658,7 +3664,7 @@
         <v>433</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>631</v>
@@ -3682,25 +3688,25 @@
         <v>647</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="T3" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V3" s="24" t="s">
         <v>646</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>644</v>
@@ -3741,34 +3747,34 @@
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>668</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>669</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="27" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S4" s="22" t="s">
         <v>630</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V4" s="22"/>
       <c r="W4" s="17" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="Z4" s="17" t="s">
         <v>632</v>
@@ -3779,7 +3785,7 @@
     </row>
     <row r="5" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>485</v>
@@ -3803,7 +3809,7 @@
         <v>635</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>626</v>
@@ -3813,7 +3819,7 @@
         <v>623</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>625</v>
+        <v>689</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>637</v>
@@ -3825,27 +3831,27 @@
         <v>639</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="R5" s="27"/>
       <c r="S5" s="22" t="s">
         <v>636</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V5" s="22" t="s">
         <v>641</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="X5" s="17"/>
       <c r="Y5" s="17" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="Z5" s="17" t="s">
         <v>642</v>
@@ -3856,7 +3862,7 @@
     </row>
     <row r="6" spans="1:28" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>485</v>
@@ -3880,7 +3886,7 @@
         <v>627</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>626</v>
@@ -3890,43 +3896,45 @@
         <v>623</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>625</v>
+        <v>689</v>
       </c>
       <c r="N6" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>674</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>675</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>639</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="R6" s="27"/>
       <c r="S6" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="U6" s="22" t="s">
         <v>659</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>660</v>
       </c>
       <c r="V6" s="22"/>
       <c r="W6" s="17" t="s">
-        <v>693</v>
-      </c>
-      <c r="X6" s="17"/>
+        <v>694</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>695</v>
+      </c>
       <c r="Y6" s="17" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="Z6" s="19" t="s">
         <v>629</v>
       </c>
       <c r="AA6" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
